--- a/results/gurobi_cplex_comparison/seed_40_k_45.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_45.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.021</v>
+        <v>1.23</v>
       </c>
       <c r="F2">
-        <v>0.052</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>1.77</v>
       </c>
       <c r="F3">
-        <v>0.059</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.031</v>
+        <v>2.463</v>
       </c>
       <c r="F4">
-        <v>0.049</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>3.127</v>
       </c>
       <c r="F5">
-        <v>0.058</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.038</v>
+        <v>3.956</v>
       </c>
       <c r="F6">
-        <v>0.07099999999999999</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.047</v>
+        <v>4.935</v>
       </c>
       <c r="F7">
-        <v>0.077</v>
+        <v>1.078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.067</v>
+        <v>6.037</v>
       </c>
       <c r="F8">
-        <v>0.078</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.068</v>
+        <v>7.058</v>
       </c>
       <c r="F9">
-        <v>0.098</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.042</v>
+        <v>8.287000000000001</v>
       </c>
       <c r="F10">
-        <v>0.094</v>
+        <v>1.706</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.044</v>
+        <v>9.638</v>
       </c>
       <c r="F11">
-        <v>64.753</v>
+        <v>62.418</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.257</v>
+        <v>11.272</v>
       </c>
       <c r="F12">
-        <v>132.163</v>
+        <v>144.736</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.12</v>
+        <v>12.592</v>
       </c>
       <c r="F13">
-        <v>151.903</v>
+        <v>145.712</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.146</v>
+        <v>14.357</v>
       </c>
       <c r="F14">
-        <v>144.842</v>
+        <v>137.512</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.126</v>
+        <v>16.034</v>
       </c>
       <c r="F15">
-        <v>77.42400000000001</v>
+        <v>80.675</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.141</v>
+        <v>17.897</v>
       </c>
       <c r="F16">
-        <v>95.78400000000001</v>
+        <v>117.634</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.18</v>
+        <v>19.886</v>
       </c>
       <c r="F17">
-        <v>109.81</v>
+        <v>95.651</v>
       </c>
     </row>
   </sheetData>
